--- a/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_13_10.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_13_10.xlsx
@@ -454,7 +454,7 @@
         <v>1285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03336334228515625</v>
+        <v>0.03362798690795898</v>
       </c>
     </row>
   </sheetData>
